--- a/nilai/Komentar_Pendidikan Agama Islam_VII.xlsx
+++ b/nilai/Komentar_Pendidikan Agama Islam_VII.xlsx
@@ -459,7 +459,12 @@
           <t>Alip Usman</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -470,7 +475,11 @@
           <t>Asep Komara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -481,7 +490,11 @@
           <t>Dika Permana</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -492,7 +505,11 @@
           <t>Gema Azuayini Ginanjar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -503,7 +520,11 @@
           <t>Indah Sondari</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -514,7 +535,11 @@
           <t>Isma Dwi Yanti</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -525,7 +550,11 @@
           <t>Mandala</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -536,7 +565,11 @@
           <t>Muhamad Padli</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -547,7 +580,11 @@
           <t>Muhammad Irsyadun Aufa</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -558,7 +595,11 @@
           <t>Muhammad Rafif Ihsan Muttaqin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,7 +610,11 @@
           <t>Muhammad Reffan Fathurrahman</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -580,7 +625,11 @@
           <t>Muhammad Tsabit Imani</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -591,7 +640,11 @@
           <t>Mutia Azahra</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -602,7 +655,11 @@
           <t>Nazrey Ilham Mulyana</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -613,7 +670,11 @@
           <t>Nur Yanti</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -624,7 +685,11 @@
           <t>Radittia Putra Amarulloh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -635,7 +700,11 @@
           <t>Reihan Wijaya</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -646,7 +715,11 @@
           <t>Repi Herdian</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -657,7 +730,11 @@
           <t>Rika Parida</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -668,7 +745,11 @@
           <t>Rina Rahmayanti</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -679,7 +760,11 @@
           <t>Rohmana</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -690,7 +775,11 @@
           <t>Rosmawati</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -701,7 +790,11 @@
           <t>Salsabila Meida</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -712,7 +805,11 @@
           <t>Saskia Allipa</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -723,7 +820,11 @@
           <t>Siti Nur Amalah</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -734,7 +835,11 @@
           <t>Tini Nur Aeni</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -745,7 +850,11 @@
           <t>Vicril Nurmulki</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -756,7 +865,11 @@
           <t>Wanda</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -767,7 +880,11 @@
           <t>Wandi</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -778,7 +895,11 @@
           <t>Yan Yan Sopian</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Alhamdulillah dipertengahan semester kedua ini, Ananda bisa menjadi pribadi yang lebih baik. Semoga bisa mempertahankan prestasinya.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
